--- a/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
+++ b/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
   <si>
     <t>土地坐落</t>
   </si>
@@ -158,6 +158,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
@@ -186,6 +195,9 @@
   </si>
   <si>
     <t>6，526</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -986,13 +998,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1011,13 +1023,22 @@
       <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1034,13 +1055,22 @@
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1057,13 +1087,22 @@
       <c r="G3" s="2">
         <v>8850</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1080,19 +1119,28 @@
       <c r="G4" s="2">
         <v>19560</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -1103,13 +1151,22 @@
       <c r="G5" s="2">
         <v>65260</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1126,13 +1183,22 @@
       <c r="G6" s="2">
         <v>33130</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1149,16 +1215,25 @@
       <c r="G7" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2">
         <v>522403</v>
@@ -1172,13 +1247,22 @@
       <c r="G8" s="2">
         <v>5224030</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
@@ -1195,13 +1279,22 @@
       <c r="G9" s="2">
         <v>32640</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>39</v>
@@ -1218,13 +1311,22 @@
       <c r="G10" s="2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
@@ -1241,13 +1343,22 @@
       <c r="G11" s="2">
         <v>5224030</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
@@ -1263,6 +1374,15 @@
       </c>
       <c r="G12" s="2">
         <v>32640</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -1280,16 +1400,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1297,10 +1417,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -1312,10 +1432,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1329,16 +1449,16 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
+++ b/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
   <si>
     <t>土地坐落</t>
   </si>
@@ -158,6 +158,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -170,13 +173,13 @@
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
-    <t>國泰金融控股股份有限公 司</t>
+    <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
     <t>長億實業股份有限公司</t>
   </si>
   <si>
-    <t>台新金融控股股份有限公 司</t>
+    <t>台新金融控股股份有限公司</t>
   </si>
   <si>
     <t>統一企業股份有限公司</t>
@@ -185,16 +188,19 @@
     <t>華隆股份有限公司</t>
   </si>
   <si>
-    <t>台灣積體電路製造股份有 限公司</t>
-  </si>
-  <si>
-    <t>兆豐票券金融股份有限公 司</t>
+    <t>台灣積體電路製造股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐票券金融股份有限公司</t>
   </si>
   <si>
     <t>羅◦偉</t>
   </si>
   <si>
-    <t>6，526</t>
+    <t>6526</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-30</t>
@@ -998,13 +1004,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1032,13 +1038,16 @@
       <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1056,21 +1065,24 @@
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1088,21 +1100,24 @@
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1120,27 +1135,30 @@
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -1152,21 +1170,24 @@
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1184,21 +1205,24 @@
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1216,24 +1240,27 @@
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2">
         <v>522403</v>
@@ -1248,21 +1275,24 @@
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
@@ -1280,21 +1310,24 @@
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>39</v>
@@ -1312,21 +1345,24 @@
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
@@ -1344,21 +1380,24 @@
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
@@ -1376,12 +1415,15 @@
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>879</v>
       </c>
     </row>
@@ -1400,16 +1442,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1417,10 +1459,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -1432,10 +1474,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1449,16 +1491,16 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
+++ b/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t>土地坐落</t>
   </si>
@@ -161,6 +161,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -170,6 +173,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
@@ -203,7 +212,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpa5201</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1004,13 +1019,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1041,13 +1056,22 @@
       <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1065,24 +1089,33 @@
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1100,24 +1133,33 @@
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1135,30 +1177,39 @@
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -1170,24 +1221,33 @@
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1205,24 +1265,33 @@
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1240,27 +1309,36 @@
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2">
         <v>522403</v>
@@ -1275,24 +1353,33 @@
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
@@ -1310,24 +1397,33 @@
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>39</v>
@@ -1345,24 +1441,33 @@
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
@@ -1380,24 +1485,33 @@
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
@@ -1415,16 +1529,25 @@
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>879</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1442,16 +1565,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1459,10 +1582,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -1474,10 +1597,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1491,16 +1614,16 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
+++ b/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
@@ -18,9 +18,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市三峽區十三添段十三添小段00050027地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段08840000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段08890000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段08890001地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之44</t>
+  </si>
+  <si>
+    <t>M靜秋</t>
+  </si>
+  <si>
+    <t>黃靜秋</t>
+  </si>
+  <si>
+    <t>93年04月08日</t>
+  </si>
+  <si>
+    <t>75年12月04日</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>羅明才</t>
+  </si>
+  <si>
+    <t>tmpa5201</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,55 +137,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市三峽區十三添段十三添 小段0005-0027地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 0884-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 0889-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 0889-0001 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 44</t>
-  </si>
-  <si>
-    <t>M靜秋</t>
-  </si>
-  <si>
-    <t>黃靜秋</t>
-  </si>
-  <si>
-    <t>93年04月 08日</t>
-  </si>
-  <si>
-    <t>75年12月 04日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>買賣.</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 00638-000 建號</t>
-  </si>
-  <si>
-    <t>新北市三峽區十三添段十三添 小段00091 -000建號</t>
+    <t>臺北市中山區吉林段四小段00638000建號</t>
+  </si>
+  <si>
+    <t>新北市三峽區十三添段十三添小段00091000建號</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -116,7 +167,7 @@
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行板橋分 行</t>
+    <t>中國信託商業銀行板橋分行</t>
   </si>
   <si>
     <t>華南商業銀行華江分行</t>
@@ -131,21 +182,12 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>羅明才</t>
-  </si>
-  <si>
     <t>羅〇偉</t>
   </si>
   <si>
     <t>羅〇立</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -158,27 +200,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
@@ -210,15 +231,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmpa5201</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -601,13 +613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,109 +641,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>879</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>879</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>879</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>879</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -749,25 +866,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -775,25 +892,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>36.35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -801,25 +918,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>194.61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -837,19 +954,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -857,16 +974,16 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>244545</v>
@@ -877,16 +994,16 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>563258</v>
@@ -897,16 +1014,16 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>809071</v>
@@ -917,16 +1034,16 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>53757</v>
@@ -937,16 +1054,16 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2">
         <v>1010245</v>
@@ -957,16 +1074,16 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2">
         <v>1013677</v>
@@ -977,16 +1094,16 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>563258</v>
@@ -997,16 +1114,16 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>8090710</v>
@@ -1027,43 +1144,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1071,10 +1188,10 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>
@@ -1083,28 +1200,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>879</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
         <v>65</v>
@@ -1115,10 +1232,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>885</v>
@@ -1127,28 +1244,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>879</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
         <v>66</v>
@@ -1159,10 +1276,10 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>1956</v>
@@ -1171,28 +1288,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <v>879</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2">
         <v>67</v>
@@ -1203,40 +1320,40 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>879</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2">
         <v>68</v>
@@ -1247,10 +1364,10 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>3313</v>
@@ -1259,28 +1376,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2">
         <v>879</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2">
         <v>69</v>
@@ -1291,10 +1408,10 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1303,28 +1420,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>879</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2">
         <v>70</v>
@@ -1335,10 +1452,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2">
         <v>522403</v>
@@ -1347,28 +1464,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2">
         <v>879</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2">
         <v>71</v>
@@ -1379,10 +1496,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2">
         <v>3264</v>
@@ -1391,28 +1508,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2">
         <v>879</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2">
         <v>72</v>
@@ -1423,10 +1540,10 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2">
         <v>4000</v>
@@ -1435,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2">
         <v>879</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2">
         <v>73</v>
@@ -1467,10 +1584,10 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2">
         <v>522403</v>
@@ -1479,28 +1596,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2">
         <v>879</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2">
         <v>74</v>
@@ -1511,10 +1628,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1523,28 +1640,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2">
         <v>879</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2">
         <v>75</v>
@@ -1565,16 +1682,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1582,13 +1699,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1597,16 +1714,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1614,16 +1731,16 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
+++ b/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市三峽區十三添段十三添小段00050027地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市中山區吉林段四小段08840000地號</t>
@@ -74,99 +77,66 @@
     <t>臺北市中山區吉林段四小段08890001地號</t>
   </si>
   <si>
+    <t>10000分之44</t>
+  </si>
+  <si>
+    <t>黃靜秋</t>
+  </si>
+  <si>
+    <t>75年12月04日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>羅明才</t>
+  </si>
+  <si>
+    <t>tmpa5201</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段00638000建號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>黄靜秋</t>
+  </si>
+  <si>
+    <t>新北市三峽區十三添段十三添小段00091000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之44</t>
-  </si>
-  <si>
-    <t>M靜秋</t>
-  </si>
-  <si>
-    <t>黃靜秋</t>
-  </si>
-  <si>
     <t>93年04月08日</t>
   </si>
   <si>
-    <t>75年12月04日</t>
-  </si>
-  <si>
     <t>受贈</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>羅明才</t>
-  </si>
-  <si>
-    <t>tmpa5201</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段00638000建號</t>
-  </si>
-  <si>
-    <t>新北市三峽區十三添段十三添小段00091000建號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>黄靜秋</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>中國信託商業銀行板橋分行</t>
   </si>
   <si>
@@ -176,12 +146,6 @@
     <t>華南商業銀行文山分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>羅〇偉</t>
   </si>
   <si>
@@ -197,27 +161,24 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
+    <t>國泰金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>長億實業股份有限公司</t>
+  </si>
+  <si>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>統一企業股份有限公司</t>
+  </si>
+  <si>
+    <t>華隆股份有限公司</t>
   </si>
   <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
-    <t>國泰金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>長億實業股份有限公司</t>
-  </si>
-  <si>
-    <t>台新金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>統一企業股份有限公司</t>
-  </si>
-  <si>
-    <t>華隆股份有限公司</t>
-  </si>
-  <si>
     <t>台灣積體電路製造股份有限公司</t>
   </si>
   <si>
@@ -233,25 +194,13 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名.稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>鍾愛一生313</t>
+  </si>
+  <si>
     <t>保德信國際人壽</t>
-  </si>
-  <si>
-    <t>鍾愛一生313</t>
   </si>
   <si>
     <t>教育終身壽險</t>
@@ -613,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,193 +611,170 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>879</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.7776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>404</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>879</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>879</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="2">
-        <v>879</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2">
-        <v>18</v>
+      <c r="P4" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.0176</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +784,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -866,77 +792,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="1">
+        <v>36.35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>194.61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
-        <v>36.35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>194.61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +846,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,178 +854,158 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="F1" s="1">
+        <v>244545</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>244545</v>
+        <v>563258</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>563258</v>
+        <v>809071</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>809071</v>
+        <v>53757</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2">
-        <v>53757</v>
+        <v>1010245</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2">
-        <v>1010245</v>
+        <v>1013677</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
-        <v>1013677</v>
+        <v>563258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>563258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2">
         <v>8090710</v>
       </c>
     </row>
@@ -1136,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1150,16 +1030,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1185,485 +1065,441 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>1000000</v>
+        <v>885</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
-        <v>10000000</v>
+        <v>8850</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2">
         <v>879</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>885</v>
+        <v>1956</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
-        <v>8850</v>
+        <v>19560</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2">
         <v>879</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1956</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
-        <v>19560</v>
+        <v>65260</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2">
         <v>879</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3313</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
-        <v>65260</v>
+        <v>33130</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2">
         <v>879</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>3313</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
-        <v>33130</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L6" s="2">
         <v>879</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>522403</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
-        <v>40</v>
+        <v>5224030</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L7" s="2">
         <v>879</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N7" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>522403</v>
+        <v>3264</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
-        <v>5224030</v>
+        <v>32640</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L8" s="2">
         <v>879</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N8" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>3264</v>
+        <v>4000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L9" s="2">
         <v>879</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N9" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
-        <v>4000</v>
+        <v>522403</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
-        <v>40000</v>
+        <v>5224030</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L10" s="2">
         <v>879</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N10" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2">
-        <v>522403</v>
+        <v>3264</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
-        <v>5224030</v>
+        <v>32640</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L11" s="2">
         <v>879</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N11" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
-        <v>75</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3264</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="2">
-        <v>32640</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="2">
-        <v>879</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="2">
         <v>75</v>
       </c>
     </row>
@@ -1674,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1682,65 +1518,48 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>102</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
+++ b/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市三峽區十三添段十三添小段00050027地號</t>
+  </si>
+  <si>
     <t>臺北市中山區吉林段四小段08840000地號</t>
   </si>
   <si>
@@ -77,15 +80,27 @@
     <t>臺北市中山區吉林段四小段08890001地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>10000分之44</t>
   </si>
   <si>
+    <t>M靜秋</t>
+  </si>
+  <si>
     <t>黃靜秋</t>
   </si>
   <si>
+    <t>93年04月08日</t>
+  </si>
+  <si>
     <t>75年12月04日</t>
   </si>
   <si>
+    <t>受贈</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -110,24 +125,15 @@
     <t>臺北市中山區吉林段四小段00638000建號</t>
   </si>
   <si>
+    <t>新北市三峽區十三添段十三添小段00091000建號</t>
+  </si>
+  <si>
     <t>2分之1</t>
   </si>
   <si>
     <t>黄靜秋</t>
   </si>
   <si>
-    <t>新北市三峽區十三添段十三添小段00091000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>93年04月08日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>旭能光電股份有限公司</t>
+  </si>
+  <si>
     <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
@@ -174,9 +183,6 @@
   </si>
   <si>
     <t>華隆股份有限公司</t>
-  </si>
-  <si>
-    <t>旭能光電股份有限公司</t>
   </si>
   <si>
     <t>台灣積體電路製造股份有限公司</t>
@@ -562,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,160 +626,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>404</v>
+        <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>879</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0044</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.7776</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>150</v>
+        <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>879</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>0.0044</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.66</v>
+        <v>1.7776</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>879</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2">
         <v>0.0044</v>
       </c>
       <c r="Q4" s="2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>879</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0.0176</v>
       </c>
     </row>
@@ -784,59 +843,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36.35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1">
-        <v>36.35</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>879</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>18.175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>194.61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2">
+      <c r="M3" s="2">
+        <v>879</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>194.61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -854,16 +1020,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1">
         <v>244545</v>
@@ -871,141 +1037,161 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
-        <v>563258</v>
+        <v>244545</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>809071</v>
+        <v>563258</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
-        <v>53757</v>
+        <v>809071</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
-        <v>1010245</v>
+        <v>53757</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2">
-        <v>1013677</v>
+        <v>1010245</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2">
-        <v>563258</v>
+        <v>1013677</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
+        <v>563258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>58</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
         <v>8090710</v>
       </c>
     </row>
@@ -1016,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1030,13 +1216,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1065,441 +1251,485 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>885</v>
+        <v>1000000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
-        <v>8850</v>
+        <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2">
         <v>879</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>1956</v>
+        <v>885</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
-        <v>19560</v>
+        <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2">
         <v>879</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1956</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
-        <v>65260</v>
+        <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2">
         <v>879</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3313</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
-        <v>33130</v>
+        <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2">
         <v>879</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>3313</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
-        <v>40</v>
+        <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2">
         <v>879</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>522403</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
-        <v>5224030</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2">
         <v>879</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2">
-        <v>3264</v>
+        <v>522403</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
-        <v>32640</v>
+        <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L8" s="2">
         <v>879</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>4000</v>
+        <v>3264</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L9" s="2">
         <v>879</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N9" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
-        <v>522403</v>
+        <v>4000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
-        <v>5224030</v>
+        <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L10" s="2">
         <v>879</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N10" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>3264</v>
+        <v>522403</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
-        <v>32640</v>
+        <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2">
         <v>879</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N11" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>75</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3264</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2">
+        <v>32640</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2">
+        <v>879</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="2">
         <v>75</v>
       </c>
     </row>
@@ -1510,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,19 +1748,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>60</v>
@@ -1539,27 +1769,42 @@
         <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>102</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
+++ b/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>黄靜秋</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>玉山商業銀行北新分行</t>
@@ -925,7 +928,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -978,7 +981,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>30</v>
@@ -1020,13 +1023,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1040,13 +1043,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1060,13 +1063,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1080,13 +1083,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1100,13 +1103,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1120,16 +1123,16 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2">
         <v>1010245</v>
@@ -1140,16 +1143,16 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2">
         <v>1013677</v>
@@ -1160,13 +1163,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1180,13 +1183,13 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1216,13 +1219,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1254,7 +1257,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1266,13 +1269,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1298,7 +1301,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1310,13 +1313,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1342,7 +1345,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1354,13 +1357,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1386,25 +1389,25 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1430,7 +1433,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1442,13 +1445,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -1474,7 +1477,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1486,13 +1489,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -1518,10 +1521,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2">
         <v>522403</v>
@@ -1530,13 +1533,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
@@ -1562,10 +1565,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
         <v>3264</v>
@@ -1574,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -1606,10 +1609,10 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
         <v>4000</v>
@@ -1618,13 +1621,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -1650,10 +1653,10 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
         <v>522403</v>
@@ -1662,13 +1665,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -1694,10 +1697,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1706,13 +1709,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -1748,10 +1751,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -1763,10 +1766,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -1778,16 +1781,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1795,16 +1798,16 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
+++ b/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -137,37 +137,46 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行華江分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行文山分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行華江分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行文山分行</t>
-  </si>
-  <si>
     <t>羅〇偉</t>
   </si>
   <si>
     <t>羅〇立</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>旭能光電股份有限公司</t>
@@ -1015,13 +1024,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1032,24 +1041,45 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1">
-        <v>244545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1057,19 +1087,40 @@
       <c r="F2" s="2">
         <v>244545</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>879</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1077,19 +1128,40 @@
       <c r="F3" s="2">
         <v>563258</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>879</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1097,19 +1169,40 @@
       <c r="F4" s="2">
         <v>809071</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>879</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1117,59 +1210,122 @@
       <c r="F5" s="2">
         <v>53757</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>879</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2">
         <v>1010245</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>879</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
         <v>1013677</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>879</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1177,25 +1333,67 @@
       <c r="F8" s="2">
         <v>563258</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2">
+        <v>879</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>8090710</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2">
+        <v>879</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1219,13 +1417,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1257,7 +1455,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1269,13 +1467,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1301,7 +1499,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1313,13 +1511,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1345,7 +1543,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1357,13 +1555,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1389,25 +1587,25 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2">
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1433,7 +1631,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1445,13 +1643,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2">
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -1477,7 +1675,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1489,13 +1687,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -1521,10 +1719,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2">
         <v>522403</v>
@@ -1533,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2">
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
@@ -1565,10 +1763,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2">
         <v>3264</v>
@@ -1577,13 +1775,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2">
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -1609,10 +1807,10 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
         <v>4000</v>
@@ -1621,13 +1819,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2">
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -1653,10 +1851,10 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2">
         <v>522403</v>
@@ -1665,13 +1863,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2">
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -1697,10 +1895,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1709,13 +1907,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2">
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -1751,10 +1949,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -1766,10 +1964,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -1781,16 +1979,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1798,16 +1996,16 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
+++ b/legislator/property/output/normal/羅明才_2012-04-30_財產申報表_tmpa5201.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -212,16 +212,22 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>保德信國際人壽</t>
+  </si>
+  <si>
     <t>鍾愛一生313</t>
   </si>
   <si>
-    <t>保德信國際人壽</t>
-  </si>
-  <si>
     <t>教育終身壽險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1941,40 +1947,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>879</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1982,16 +2028,34 @@
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>879</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1999,13 +2063,31 @@
         <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2">
+        <v>879</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
